--- a/empirics/modeldata/TailFrechet.xlsx
+++ b/empirics/modeldata/TailFrechet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>year</t>
   </si>
@@ -142,7 +142,7 @@
         <v>1.6986664533615112</v>
       </c>
       <c r="D4" s="1">
-        <v>0.00013818286242894828</v>
+        <v>0.00013818284787703305</v>
       </c>
       <c r="E4" s="1">
         <v>0.0043545011430978775</v>
@@ -193,10 +193,10 @@
         <v>1.7059711217880249</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00017278168525081128</v>
+        <v>0.00017278169980272651</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0050426158122718334</v>
+        <v>0.0050426153466105461</v>
       </c>
     </row>
     <row r="8">
@@ -298,7 +298,7 @@
         <v>0.00015262016677297652</v>
       </c>
       <c r="E13" s="1">
-        <v>0.0031302841380238533</v>
+        <v>0.003130284370854497</v>
       </c>
     </row>
     <row r="14">
@@ -332,7 +332,7 @@
         <v>0.00020937281078658998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.0043582692742347717</v>
+        <v>0.0043582688085734844</v>
       </c>
     </row>
     <row r="16">
@@ -346,10 +346,10 @@
         <v>1.7621685266494751</v>
       </c>
       <c r="D16" s="1">
-        <v>0.00018502515740692616</v>
+        <v>0.0001850252301665023</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0040286881849169731</v>
+        <v>0.0040286877192556858</v>
       </c>
     </row>
     <row r="17">
@@ -397,7 +397,7 @@
         <v>1.7350330352783203</v>
       </c>
       <c r="D19" s="1">
-        <v>0.00016586871061008424</v>
+        <v>0.00016586869605816901</v>
       </c>
       <c r="E19" s="1">
         <v>0.0040860306471586227</v>
@@ -431,7 +431,7 @@
         <v>1.8197396993637085</v>
       </c>
       <c r="D21" s="1">
-        <v>0.00018965212802868336</v>
+        <v>0.00018965211347676814</v>
       </c>
       <c r="E21" s="1">
         <v>0.0032930003944784403</v>
@@ -448,7 +448,7 @@
         <v>1.8147773742675781</v>
       </c>
       <c r="D22" s="1">
-        <v>0.00015819055261090398</v>
+        <v>0.00015819053805898875</v>
       </c>
       <c r="E22" s="1">
         <v>0.0041498453356325626</v>
@@ -465,7 +465,7 @@
         <v>1.7888879776000977</v>
       </c>
       <c r="D23" s="1">
-        <v>0.00013598571240436286</v>
+        <v>0.00013598572695627809</v>
       </c>
       <c r="E23" s="1">
         <v>0.0044061033986508846</v>
@@ -669,7 +669,7 @@
         <v>1.831390380859375</v>
       </c>
       <c r="D35" s="1">
-        <v>0.00014990784984547645</v>
+        <v>0.00014990783529356122</v>
       </c>
       <c r="E35" s="1">
         <v>0.0044294502586126328</v>
